--- a/Code/Results/Cases/Case_5_221/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_221/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.998340147614598</v>
+        <v>1.030359391618641</v>
       </c>
       <c r="D2">
-        <v>1.015738281634587</v>
+        <v>1.032743152920536</v>
       </c>
       <c r="E2">
-        <v>1.01316184036946</v>
+        <v>1.039297547903983</v>
       </c>
       <c r="F2">
-        <v>1.019896575401677</v>
+        <v>1.048419981340831</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042026853055791</v>
+        <v>1.032490467137752</v>
       </c>
       <c r="J2">
-        <v>1.020570618177278</v>
+        <v>1.035501071422004</v>
       </c>
       <c r="K2">
-        <v>1.02698262647332</v>
+        <v>1.035547504045563</v>
       </c>
       <c r="L2">
-        <v>1.024440805354156</v>
+        <v>1.04208313535606</v>
       </c>
       <c r="M2">
-        <v>1.031085507470802</v>
+        <v>1.05117987703966</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.002756126879679</v>
+        <v>1.031302376646201</v>
       </c>
       <c r="D3">
-        <v>1.018777769535884</v>
+        <v>1.033406807290033</v>
       </c>
       <c r="E3">
-        <v>1.016866122588026</v>
+        <v>1.040142136546105</v>
       </c>
       <c r="F3">
-        <v>1.024020109069692</v>
+        <v>1.049364256358673</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042951727324485</v>
+        <v>1.032627378061937</v>
       </c>
       <c r="J3">
-        <v>1.023171938047899</v>
+        <v>1.03608551039711</v>
       </c>
       <c r="K3">
-        <v>1.029175893269662</v>
+        <v>1.036020382397979</v>
       </c>
       <c r="L3">
-        <v>1.027287652315196</v>
+        <v>1.042737823025312</v>
       </c>
       <c r="M3">
-        <v>1.034354602934973</v>
+        <v>1.051935851555375</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.005557603569756</v>
+        <v>1.031913107913507</v>
       </c>
       <c r="D4">
-        <v>1.020708172628889</v>
+        <v>1.033836476435534</v>
       </c>
       <c r="E4">
-        <v>1.019222104570892</v>
+        <v>1.040689513347208</v>
       </c>
       <c r="F4">
-        <v>1.026642265606885</v>
+        <v>1.049976232178577</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043528175447176</v>
+        <v>1.032714746184533</v>
       </c>
       <c r="J4">
-        <v>1.024820205821241</v>
+        <v>1.036463630344672</v>
       </c>
       <c r="K4">
-        <v>1.030562931021253</v>
+        <v>1.036325924803668</v>
       </c>
       <c r="L4">
-        <v>1.029093941711331</v>
+        <v>1.043161676308437</v>
       </c>
       <c r="M4">
-        <v>1.036429433587619</v>
+        <v>1.052425358751944</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.006722410979527</v>
+        <v>1.03216999158909</v>
       </c>
       <c r="D5">
-        <v>1.021511261972931</v>
+        <v>1.03401716539184</v>
       </c>
       <c r="E5">
-        <v>1.020203080894768</v>
+        <v>1.040919837749433</v>
       </c>
       <c r="F5">
-        <v>1.0277339643282</v>
+        <v>1.050233736777929</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043765343072532</v>
+        <v>1.03275118253241</v>
       </c>
       <c r="J5">
-        <v>1.025505013918444</v>
+        <v>1.036622578676288</v>
       </c>
       <c r="K5">
-        <v>1.03113854596926</v>
+        <v>1.036454268057021</v>
       </c>
       <c r="L5">
-        <v>1.029844992348278</v>
+        <v>1.043339917317603</v>
       </c>
       <c r="M5">
-        <v>1.0372922955687</v>
+        <v>1.052631227955123</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.00691724189537</v>
+        <v>1.032213131212758</v>
       </c>
       <c r="D6">
-        <v>1.02164561562534</v>
+        <v>1.034047507105609</v>
       </c>
       <c r="E6">
-        <v>1.02036724439588</v>
+        <v>1.040958522338286</v>
       </c>
       <c r="F6">
-        <v>1.027916650855913</v>
+        <v>1.050276986375631</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043804864064286</v>
+        <v>1.032757283145094</v>
       </c>
       <c r="J6">
-        <v>1.025619526768466</v>
+        <v>1.036649265990513</v>
       </c>
       <c r="K6">
-        <v>1.031234760385636</v>
+        <v>1.03647581116144</v>
       </c>
       <c r="L6">
-        <v>1.029970616881667</v>
+        <v>1.043369847846927</v>
       </c>
       <c r="M6">
-        <v>1.037436631245197</v>
+        <v>1.052665798976111</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.005573218005524</v>
+        <v>1.031916539887431</v>
       </c>
       <c r="D7">
-        <v>1.02071893643566</v>
+        <v>1.033838890591875</v>
       </c>
       <c r="E7">
-        <v>1.019235249252503</v>
+        <v>1.040692590140813</v>
       </c>
       <c r="F7">
-        <v>1.026656894333837</v>
+        <v>1.049979672065882</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04353136468564</v>
+        <v>1.032715234201621</v>
       </c>
       <c r="J7">
-        <v>1.024829387863323</v>
+        <v>1.036465754273611</v>
       </c>
       <c r="K7">
-        <v>1.030570651608649</v>
+        <v>1.036327640153402</v>
       </c>
       <c r="L7">
-        <v>1.02910400961693</v>
+        <v>1.043164057766372</v>
       </c>
       <c r="M7">
-        <v>1.036440999730467</v>
+        <v>1.052428109272102</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9998444206589396</v>
+        <v>1.03067796186836</v>
       </c>
       <c r="D8">
-        <v>1.016773171191636</v>
+        <v>1.03296738734446</v>
       </c>
       <c r="E8">
-        <v>1.014422394463858</v>
+        <v>1.039582799281087</v>
       </c>
       <c r="F8">
-        <v>1.02129990360881</v>
+        <v>1.04873890244646</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042344035651734</v>
+        <v>1.03253698959124</v>
       </c>
       <c r="J8">
-        <v>1.021457136904771</v>
+        <v>1.035698595269883</v>
       </c>
       <c r="K8">
-        <v>1.027730633146939</v>
+        <v>1.035707406269241</v>
       </c>
       <c r="L8">
-        <v>1.025410485825362</v>
+        <v>1.042304342508497</v>
       </c>
       <c r="M8">
-        <v>1.032198881255315</v>
+        <v>1.051435290756261</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9892990088950855</v>
+        <v>1.028499741721877</v>
       </c>
       <c r="D9">
-        <v>1.009530016010764</v>
+        <v>1.031433594701899</v>
       </c>
       <c r="E9">
-        <v>1.00561278305308</v>
+        <v>1.037633943946112</v>
       </c>
       <c r="F9">
-        <v>1.011490157622239</v>
+        <v>1.046559977135117</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040078625542982</v>
+        <v>1.032213562699357</v>
       </c>
       <c r="J9">
-        <v>1.015235389443032</v>
+        <v>1.034346417672459</v>
       </c>
       <c r="K9">
-        <v>1.022470344699653</v>
+        <v>1.034611140992191</v>
       </c>
       <c r="L9">
-        <v>1.018615448440258</v>
+        <v>1.040791200785213</v>
       </c>
       <c r="M9">
-        <v>1.024399525677981</v>
+        <v>1.049688487388761</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9819331795223013</v>
+        <v>1.027050557283306</v>
       </c>
       <c r="D10">
-        <v>1.004488627579969</v>
+        <v>1.030412437789532</v>
       </c>
       <c r="E10">
-        <v>0.9994961532999123</v>
+        <v>1.036339322357502</v>
       </c>
       <c r="F10">
-        <v>1.004675794259428</v>
+        <v>1.045112469425325</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038445019827428</v>
+        <v>1.031991700558728</v>
       </c>
       <c r="J10">
-        <v>1.010882409050869</v>
+        <v>1.033444795627058</v>
       </c>
       <c r="K10">
-        <v>1.018777308661051</v>
+        <v>1.03387811957759</v>
       </c>
       <c r="L10">
-        <v>1.013874510817373</v>
+        <v>1.039783709011029</v>
       </c>
       <c r="M10">
-        <v>1.018961135894529</v>
+        <v>1.04852582306459</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9786562210801374</v>
+        <v>1.026423759925416</v>
       </c>
       <c r="D11">
-        <v>1.002251017473367</v>
+        <v>1.029970609555492</v>
       </c>
       <c r="E11">
-        <v>0.9967844044272791</v>
+        <v>1.035779849378669</v>
       </c>
       <c r="F11">
-        <v>1.001653798569023</v>
+        <v>1.044486912616342</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037706731921603</v>
+        <v>1.031894157753258</v>
       </c>
       <c r="J11">
-        <v>1.008944695518655</v>
+        <v>1.033054355811294</v>
       </c>
       <c r="K11">
-        <v>1.017130607390134</v>
+        <v>1.033560209932741</v>
       </c>
       <c r="L11">
-        <v>1.01176721802265</v>
+        <v>1.039347769260921</v>
       </c>
       <c r="M11">
-        <v>1.016544593918474</v>
+        <v>1.048022836310045</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9774251417943185</v>
+        <v>1.026191046999592</v>
       </c>
       <c r="D12">
-        <v>1.001411273666777</v>
+        <v>1.029806547368405</v>
       </c>
       <c r="E12">
-        <v>0.9957671487855762</v>
+        <v>1.035572203891665</v>
       </c>
       <c r="F12">
-        <v>1.000520012149021</v>
+        <v>1.044254738237868</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037427699570488</v>
+        <v>1.031857704943848</v>
       </c>
       <c r="J12">
-        <v>1.008216621169664</v>
+        <v>1.032909325355928</v>
       </c>
       <c r="K12">
-        <v>1.016511485754899</v>
+        <v>1.033442049081932</v>
       </c>
       <c r="L12">
-        <v>1.010975895347072</v>
+        <v>1.039185889651985</v>
       </c>
       <c r="M12">
-        <v>1.015637256323483</v>
+        <v>1.047836074184537</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.977689852351143</v>
+        <v>1.026240959830612</v>
       </c>
       <c r="D13">
-        <v>1.001591796986554</v>
+        <v>1.029841736865154</v>
       </c>
       <c r="E13">
-        <v>0.9959858140094062</v>
+        <v>1.035616736942511</v>
       </c>
       <c r="F13">
-        <v>1.000763733243527</v>
+        <v>1.044304532022972</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037487772708944</v>
+        <v>1.031865534190353</v>
       </c>
       <c r="J13">
-        <v>1.008373178558509</v>
+        <v>1.032940435033152</v>
       </c>
       <c r="K13">
-        <v>1.01664463244329</v>
+        <v>1.033467398365061</v>
       </c>
       <c r="L13">
-        <v>1.011146031770738</v>
+        <v>1.039220611195387</v>
       </c>
       <c r="M13">
-        <v>1.015832331157144</v>
+        <v>1.047876132126932</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9785547470107857</v>
+        <v>1.026404521603219</v>
       </c>
       <c r="D14">
-        <v>1.002181781649748</v>
+        <v>1.029957047044489</v>
       </c>
       <c r="E14">
-        <v>0.9967005245559851</v>
+        <v>1.035762681908958</v>
       </c>
       <c r="F14">
-        <v>1.001560312995506</v>
+        <v>1.044467717221912</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037683765847094</v>
+        <v>1.031891149059266</v>
       </c>
       <c r="J14">
-        <v>1.008884684715945</v>
+        <v>1.03304236761871</v>
       </c>
       <c r="K14">
-        <v>1.017079584739522</v>
+        <v>1.033550444244969</v>
       </c>
       <c r="L14">
-        <v>1.011701984496916</v>
+        <v>1.039334387259834</v>
       </c>
       <c r="M14">
-        <v>1.016469794284407</v>
+        <v>1.048007397068404</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9790857766078325</v>
+        <v>1.026505311686886</v>
       </c>
       <c r="D15">
-        <v>1.002544139733179</v>
+        <v>1.030028100451952</v>
       </c>
       <c r="E15">
-        <v>0.9971395420069517</v>
+        <v>1.035852625682243</v>
       </c>
       <c r="F15">
-        <v>1.002049599458585</v>
+        <v>1.044568285602512</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037803882975697</v>
+        <v>1.03190690194784</v>
       </c>
       <c r="J15">
-        <v>1.009198726037256</v>
+        <v>1.033105171185774</v>
       </c>
       <c r="K15">
-        <v>1.017346574503888</v>
+        <v>1.033601601638418</v>
       </c>
       <c r="L15">
-        <v>1.012043375876487</v>
+        <v>1.039404494819095</v>
       </c>
       <c r="M15">
-        <v>1.016861253286574</v>
+        <v>1.048088282984885</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9821487561156153</v>
+        <v>1.027092170783403</v>
       </c>
       <c r="D16">
-        <v>1.004635946608589</v>
+        <v>1.030441767753578</v>
       </c>
       <c r="E16">
-        <v>0.9996747498886766</v>
+        <v>1.036376476174609</v>
       </c>
       <c r="F16">
-        <v>1.004874803814618</v>
+        <v>1.045154011473182</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038493353155484</v>
+        <v>1.031998143122166</v>
       </c>
       <c r="J16">
-        <v>1.011009863313523</v>
+        <v>1.033470707254016</v>
       </c>
       <c r="K16">
-        <v>1.018885565813571</v>
+        <v>1.033899207610997</v>
       </c>
       <c r="L16">
-        <v>1.014013184289972</v>
+        <v>1.039812647541466</v>
       </c>
       <c r="M16">
-        <v>1.019120175721219</v>
+        <v>1.048559214323436</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9840461584837586</v>
+        <v>1.027460482525935</v>
       </c>
       <c r="D17">
-        <v>1.005933185187498</v>
+        <v>1.030701342257482</v>
       </c>
       <c r="E17">
-        <v>1.001247756662712</v>
+        <v>1.036705371046843</v>
       </c>
       <c r="F17">
-        <v>1.006627494262188</v>
+        <v>1.045521750443442</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038917454936596</v>
+        <v>1.032054981771676</v>
       </c>
       <c r="J17">
-        <v>1.012131532111407</v>
+        <v>1.03369999064754</v>
       </c>
       <c r="K17">
-        <v>1.019837977823384</v>
+        <v>1.034085753100489</v>
       </c>
       <c r="L17">
-        <v>1.015233943498414</v>
+        <v>1.040068754974445</v>
       </c>
       <c r="M17">
-        <v>1.020520308876522</v>
+        <v>1.048854739698181</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9851444896139163</v>
+        <v>1.027675380881922</v>
       </c>
       <c r="D18">
-        <v>1.006684596254685</v>
+        <v>1.030852780325688</v>
       </c>
       <c r="E18">
-        <v>1.002159201346723</v>
+        <v>1.036897316547984</v>
       </c>
       <c r="F18">
-        <v>1.007642966611753</v>
+        <v>1.045736364324057</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039161853301985</v>
+        <v>1.032087992438651</v>
       </c>
       <c r="J18">
-        <v>1.012780710939987</v>
+        <v>1.033833724662619</v>
       </c>
       <c r="K18">
-        <v>1.020388933888422</v>
+        <v>1.034194512984862</v>
       </c>
       <c r="L18">
-        <v>1.015940767957834</v>
+        <v>1.040218168022833</v>
       </c>
       <c r="M18">
-        <v>1.021331063859003</v>
+        <v>1.049027158424444</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9855175899812043</v>
+        <v>1.027748667230739</v>
       </c>
       <c r="D19">
-        <v>1.006939929428119</v>
+        <v>1.03090442228628</v>
       </c>
       <c r="E19">
-        <v>1.002468966461345</v>
+        <v>1.036962783056365</v>
       </c>
       <c r="F19">
-        <v>1.007988072451752</v>
+        <v>1.045809562075543</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03924468703457</v>
+        <v>1.032099224060653</v>
       </c>
       <c r="J19">
-        <v>1.013001215101559</v>
+        <v>1.033879323947618</v>
       </c>
       <c r="K19">
-        <v>1.020576029738203</v>
+        <v>1.03423158896129</v>
       </c>
       <c r="L19">
-        <v>1.016180902576097</v>
+        <v>1.040269119051178</v>
       </c>
       <c r="M19">
-        <v>1.021606519846422</v>
+        <v>1.049085956141209</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9838434582229174</v>
+        <v>1.027420959084891</v>
       </c>
       <c r="D20">
-        <v>1.005794549109068</v>
+        <v>1.030673488981685</v>
       </c>
       <c r="E20">
-        <v>1.001079618581182</v>
+        <v>1.036670072694338</v>
       </c>
       <c r="F20">
-        <v>1.0064401588729</v>
+        <v>1.045482283320484</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03887226141764</v>
+        <v>1.032048898243118</v>
       </c>
       <c r="J20">
-        <v>1.012011714925097</v>
+        <v>1.033675391023605</v>
       </c>
       <c r="K20">
-        <v>1.019736267897328</v>
+        <v>1.0340657435898</v>
       </c>
       <c r="L20">
-        <v>1.015103510725408</v>
+        <v>1.040041273968201</v>
       </c>
       <c r="M20">
-        <v>1.020370703292447</v>
+        <v>1.048823028085343</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.978300446065655</v>
+        <v>1.026356353761758</v>
       </c>
       <c r="D21">
-        <v>1.00200828636885</v>
+        <v>1.029923089609702</v>
       </c>
       <c r="E21">
-        <v>0.9964903400627083</v>
+        <v>1.035719700113534</v>
       </c>
       <c r="F21">
-        <v>1.001326056300436</v>
+        <v>1.044419658122051</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037626184519557</v>
+        <v>1.03188361221704</v>
       </c>
       <c r="J21">
-        <v>1.008734291805317</v>
+        <v>1.033012351107517</v>
       </c>
       <c r="K21">
-        <v>1.016951710777425</v>
+        <v>1.03352599136664</v>
       </c>
       <c r="L21">
-        <v>1.011538510495878</v>
+        <v>1.039300881715419</v>
       </c>
       <c r="M21">
-        <v>1.016282349613995</v>
+        <v>1.047968740884796</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9747346851300484</v>
+        <v>1.025687616719573</v>
       </c>
       <c r="D22">
-        <v>0.9995777713956993</v>
+        <v>1.029451588178378</v>
       </c>
       <c r="E22">
-        <v>0.9935468024013151</v>
+        <v>1.035123134044033</v>
       </c>
       <c r="F22">
-        <v>0.998045031294072</v>
+        <v>1.043752616134901</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036814875528522</v>
+        <v>1.031778411566573</v>
       </c>
       <c r="J22">
-        <v>1.006625293407872</v>
+        <v>1.032595450555473</v>
       </c>
       <c r="K22">
-        <v>1.015157597360171</v>
+        <v>1.033186194001796</v>
       </c>
       <c r="L22">
-        <v>1.009247191595063</v>
+        <v>1.038835644975304</v>
       </c>
       <c r="M22">
-        <v>1.01365531623344</v>
+        <v>1.047432019637012</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9766328621800089</v>
+        <v>1.026042067532747</v>
       </c>
       <c r="D23">
-        <v>1.000871102159721</v>
+        <v>1.029701510652981</v>
       </c>
       <c r="E23">
-        <v>0.9951129062311012</v>
+        <v>1.035439292502214</v>
       </c>
       <c r="F23">
-        <v>0.9997907802824137</v>
+        <v>1.044106125555524</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037247659567494</v>
+        <v>1.031834301453783</v>
       </c>
       <c r="J23">
-        <v>1.00774803093754</v>
+        <v>1.032816459082273</v>
       </c>
       <c r="K23">
-        <v>1.016112910188858</v>
+        <v>1.033366367775896</v>
       </c>
       <c r="L23">
-        <v>1.010466730683092</v>
+        <v>1.039082249117333</v>
       </c>
       <c r="M23">
-        <v>1.015053475371446</v>
+        <v>1.04771650710371</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9839350756253911</v>
+        <v>1.027438817815514</v>
       </c>
       <c r="D24">
-        <v>1.005857208970263</v>
+        <v>1.030686074577367</v>
       </c>
       <c r="E24">
-        <v>1.001155611645324</v>
+        <v>1.036686022170941</v>
       </c>
       <c r="F24">
-        <v>1.006524828775579</v>
+        <v>1.045500116450171</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038892691599927</v>
+        <v>1.03205164756772</v>
       </c>
       <c r="J24">
-        <v>1.012065870799232</v>
+        <v>1.033686506544485</v>
       </c>
       <c r="K24">
-        <v>1.019782240334097</v>
+        <v>1.034074785177714</v>
       </c>
       <c r="L24">
-        <v>1.015162463794963</v>
+        <v>1.040053691359693</v>
       </c>
       <c r="M24">
-        <v>1.020438321874498</v>
+        <v>1.048837357063038</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9920818755927562</v>
+        <v>1.02906234632689</v>
       </c>
       <c r="D25">
-        <v>1.011438674235068</v>
+        <v>1.031829881640143</v>
       </c>
       <c r="E25">
-        <v>1.007931473337793</v>
+        <v>1.038136962517277</v>
       </c>
       <c r="F25">
-        <v>1.014072619200908</v>
+        <v>1.047122387426001</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04068549448613</v>
+        <v>1.032298279348333</v>
       </c>
       <c r="J25">
-        <v>1.016878686489645</v>
+        <v>1.034696022549613</v>
       </c>
       <c r="K25">
-        <v>1.023861977224586</v>
+        <v>1.034894940373036</v>
       </c>
       <c r="L25">
-        <v>1.020407898599707</v>
+        <v>1.041182165458554</v>
       </c>
       <c r="M25">
-        <v>1.026456334257005</v>
+        <v>1.050139753700381</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_221/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_221/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.030359391618641</v>
+        <v>0.998340147614598</v>
       </c>
       <c r="D2">
-        <v>1.032743152920536</v>
+        <v>1.015738281634586</v>
       </c>
       <c r="E2">
-        <v>1.039297547903983</v>
+        <v>1.01316184036946</v>
       </c>
       <c r="F2">
-        <v>1.048419981340831</v>
+        <v>1.019896575401677</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032490467137752</v>
+        <v>1.042026853055791</v>
       </c>
       <c r="J2">
-        <v>1.035501071422004</v>
+        <v>1.020570618177278</v>
       </c>
       <c r="K2">
-        <v>1.035547504045563</v>
+        <v>1.02698262647332</v>
       </c>
       <c r="L2">
-        <v>1.04208313535606</v>
+        <v>1.024440805354156</v>
       </c>
       <c r="M2">
-        <v>1.05117987703966</v>
+        <v>1.031085507470802</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.031302376646201</v>
+        <v>1.002756126879678</v>
       </c>
       <c r="D3">
-        <v>1.033406807290033</v>
+        <v>1.018777769535883</v>
       </c>
       <c r="E3">
-        <v>1.040142136546105</v>
+        <v>1.016866122588025</v>
       </c>
       <c r="F3">
-        <v>1.049364256358673</v>
+        <v>1.024020109069691</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.032627378061937</v>
+        <v>1.042951727324485</v>
       </c>
       <c r="J3">
-        <v>1.03608551039711</v>
+        <v>1.023171938047899</v>
       </c>
       <c r="K3">
-        <v>1.036020382397979</v>
+        <v>1.029175893269661</v>
       </c>
       <c r="L3">
-        <v>1.042737823025312</v>
+        <v>1.027287652315195</v>
       </c>
       <c r="M3">
-        <v>1.051935851555375</v>
+        <v>1.034354602934972</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.031913107913507</v>
+        <v>1.005557603569756</v>
       </c>
       <c r="D4">
-        <v>1.033836476435534</v>
+        <v>1.020708172628889</v>
       </c>
       <c r="E4">
-        <v>1.040689513347208</v>
+        <v>1.019222104570891</v>
       </c>
       <c r="F4">
-        <v>1.049976232178577</v>
+        <v>1.026642265606885</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.032714746184533</v>
+        <v>1.043528175447176</v>
       </c>
       <c r="J4">
-        <v>1.036463630344672</v>
+        <v>1.024820205821241</v>
       </c>
       <c r="K4">
-        <v>1.036325924803668</v>
+        <v>1.030562931021253</v>
       </c>
       <c r="L4">
-        <v>1.043161676308437</v>
+        <v>1.029093941711331</v>
       </c>
       <c r="M4">
-        <v>1.052425358751944</v>
+        <v>1.036429433587619</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.03216999158909</v>
+        <v>1.006722410979527</v>
       </c>
       <c r="D5">
-        <v>1.03401716539184</v>
+        <v>1.021511261972931</v>
       </c>
       <c r="E5">
-        <v>1.040919837749433</v>
+        <v>1.020203080894767</v>
       </c>
       <c r="F5">
-        <v>1.050233736777929</v>
+        <v>1.027733964328199</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.03275118253241</v>
+        <v>1.043765343072531</v>
       </c>
       <c r="J5">
-        <v>1.036622578676288</v>
+        <v>1.025505013918444</v>
       </c>
       <c r="K5">
-        <v>1.036454268057021</v>
+        <v>1.03113854596926</v>
       </c>
       <c r="L5">
-        <v>1.043339917317603</v>
+        <v>1.029844992348277</v>
       </c>
       <c r="M5">
-        <v>1.052631227955123</v>
+        <v>1.037292295568699</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.032213131212758</v>
+        <v>1.006917241895371</v>
       </c>
       <c r="D6">
-        <v>1.034047507105609</v>
+        <v>1.02164561562534</v>
       </c>
       <c r="E6">
-        <v>1.040958522338286</v>
+        <v>1.020367244395881</v>
       </c>
       <c r="F6">
-        <v>1.050276986375631</v>
+        <v>1.027916650855913</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.032757283145094</v>
+        <v>1.043804864064286</v>
       </c>
       <c r="J6">
-        <v>1.036649265990513</v>
+        <v>1.025619526768466</v>
       </c>
       <c r="K6">
-        <v>1.03647581116144</v>
+        <v>1.031234760385636</v>
       </c>
       <c r="L6">
-        <v>1.043369847846927</v>
+        <v>1.029970616881668</v>
       </c>
       <c r="M6">
-        <v>1.052665798976111</v>
+        <v>1.037436631245197</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.031916539887431</v>
+        <v>1.005573218005523</v>
       </c>
       <c r="D7">
-        <v>1.033838890591875</v>
+        <v>1.020718936435659</v>
       </c>
       <c r="E7">
-        <v>1.040692590140813</v>
+        <v>1.019235249252503</v>
       </c>
       <c r="F7">
-        <v>1.049979672065882</v>
+        <v>1.026656894333836</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.032715234201621</v>
+        <v>1.04353136468564</v>
       </c>
       <c r="J7">
-        <v>1.036465754273611</v>
+        <v>1.024829387863322</v>
       </c>
       <c r="K7">
-        <v>1.036327640153402</v>
+        <v>1.030570651608649</v>
       </c>
       <c r="L7">
-        <v>1.043164057766372</v>
+        <v>1.029104009616929</v>
       </c>
       <c r="M7">
-        <v>1.052428109272102</v>
+        <v>1.036440999730467</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.03067796186836</v>
+        <v>0.9998444206589391</v>
       </c>
       <c r="D8">
-        <v>1.03296738734446</v>
+        <v>1.016773171191635</v>
       </c>
       <c r="E8">
-        <v>1.039582799281087</v>
+        <v>1.014422394463857</v>
       </c>
       <c r="F8">
-        <v>1.04873890244646</v>
+        <v>1.02129990360881</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03253698959124</v>
+        <v>1.042344035651733</v>
       </c>
       <c r="J8">
-        <v>1.035698595269883</v>
+        <v>1.021457136904771</v>
       </c>
       <c r="K8">
-        <v>1.035707406269241</v>
+        <v>1.027730633146938</v>
       </c>
       <c r="L8">
-        <v>1.042304342508497</v>
+        <v>1.025410485825361</v>
       </c>
       <c r="M8">
-        <v>1.051435290756261</v>
+        <v>1.032198881255314</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.028499741721877</v>
+        <v>0.9892990088950844</v>
       </c>
       <c r="D9">
-        <v>1.031433594701899</v>
+        <v>1.009530016010763</v>
       </c>
       <c r="E9">
-        <v>1.037633943946112</v>
+        <v>1.005612783053079</v>
       </c>
       <c r="F9">
-        <v>1.046559977135117</v>
+        <v>1.011490157622238</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032213562699357</v>
+        <v>1.040078625542981</v>
       </c>
       <c r="J9">
-        <v>1.034346417672459</v>
+        <v>1.015235389443031</v>
       </c>
       <c r="K9">
-        <v>1.034611140992191</v>
+        <v>1.022470344699652</v>
       </c>
       <c r="L9">
-        <v>1.040791200785213</v>
+        <v>1.018615448440257</v>
       </c>
       <c r="M9">
-        <v>1.049688487388761</v>
+        <v>1.024399525677979</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.027050557283306</v>
+        <v>0.9819331795223016</v>
       </c>
       <c r="D10">
-        <v>1.030412437789532</v>
+        <v>1.004488627579969</v>
       </c>
       <c r="E10">
-        <v>1.036339322357502</v>
+        <v>0.9994961532999125</v>
       </c>
       <c r="F10">
-        <v>1.045112469425325</v>
+        <v>1.004675794259428</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031991700558728</v>
+        <v>1.038445019827428</v>
       </c>
       <c r="J10">
-        <v>1.033444795627058</v>
+        <v>1.010882409050869</v>
       </c>
       <c r="K10">
-        <v>1.03387811957759</v>
+        <v>1.018777308661051</v>
       </c>
       <c r="L10">
-        <v>1.039783709011029</v>
+        <v>1.013874510817373</v>
       </c>
       <c r="M10">
-        <v>1.04852582306459</v>
+        <v>1.01896113589453</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.026423759925416</v>
+        <v>0.9786562210801376</v>
       </c>
       <c r="D11">
-        <v>1.029970609555492</v>
+        <v>1.002251017473367</v>
       </c>
       <c r="E11">
-        <v>1.035779849378669</v>
+        <v>0.9967844044272793</v>
       </c>
       <c r="F11">
-        <v>1.044486912616342</v>
+        <v>1.001653798569023</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031894157753258</v>
+        <v>1.037706731921603</v>
       </c>
       <c r="J11">
-        <v>1.033054355811294</v>
+        <v>1.008944695518655</v>
       </c>
       <c r="K11">
-        <v>1.033560209932741</v>
+        <v>1.017130607390134</v>
       </c>
       <c r="L11">
-        <v>1.039347769260921</v>
+        <v>1.01176721802265</v>
       </c>
       <c r="M11">
-        <v>1.048022836310045</v>
+        <v>1.016544593918474</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.026191046999592</v>
+        <v>0.9774251417943193</v>
       </c>
       <c r="D12">
-        <v>1.029806547368405</v>
+        <v>1.001411273666778</v>
       </c>
       <c r="E12">
-        <v>1.035572203891665</v>
+        <v>0.9957671487855766</v>
       </c>
       <c r="F12">
-        <v>1.044254738237868</v>
+        <v>1.000520012149022</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031857704943848</v>
+        <v>1.037427699570489</v>
       </c>
       <c r="J12">
-        <v>1.032909325355928</v>
+        <v>1.008216621169665</v>
       </c>
       <c r="K12">
-        <v>1.033442049081932</v>
+        <v>1.0165114857549</v>
       </c>
       <c r="L12">
-        <v>1.039185889651985</v>
+        <v>1.010975895347073</v>
       </c>
       <c r="M12">
-        <v>1.047836074184537</v>
+        <v>1.015637256323484</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.026240959830612</v>
+        <v>0.9776898523511435</v>
       </c>
       <c r="D13">
-        <v>1.029841736865154</v>
+        <v>1.001591796986554</v>
       </c>
       <c r="E13">
-        <v>1.035616736942511</v>
+        <v>0.9959858140094069</v>
       </c>
       <c r="F13">
-        <v>1.044304532022972</v>
+        <v>1.000763733243527</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031865534190353</v>
+        <v>1.037487772708944</v>
       </c>
       <c r="J13">
-        <v>1.032940435033152</v>
+        <v>1.008373178558509</v>
       </c>
       <c r="K13">
-        <v>1.033467398365061</v>
+        <v>1.01664463244329</v>
       </c>
       <c r="L13">
-        <v>1.039220611195387</v>
+        <v>1.011146031770738</v>
       </c>
       <c r="M13">
-        <v>1.047876132126932</v>
+        <v>1.015832331157144</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.026404521603219</v>
+        <v>0.9785547470107856</v>
       </c>
       <c r="D14">
-        <v>1.029957047044489</v>
+        <v>1.002181781649748</v>
       </c>
       <c r="E14">
-        <v>1.035762681908958</v>
+        <v>0.9967005245559851</v>
       </c>
       <c r="F14">
-        <v>1.044467717221912</v>
+        <v>1.001560312995505</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031891149059266</v>
+        <v>1.037683765847094</v>
       </c>
       <c r="J14">
-        <v>1.03304236761871</v>
+        <v>1.008884684715944</v>
       </c>
       <c r="K14">
-        <v>1.033550444244969</v>
+        <v>1.017079584739522</v>
       </c>
       <c r="L14">
-        <v>1.039334387259834</v>
+        <v>1.011701984496916</v>
       </c>
       <c r="M14">
-        <v>1.048007397068404</v>
+        <v>1.016469794284407</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.026505311686886</v>
+        <v>0.9790857766078319</v>
       </c>
       <c r="D15">
-        <v>1.030028100451952</v>
+        <v>1.002544139733179</v>
       </c>
       <c r="E15">
-        <v>1.035852625682243</v>
+        <v>0.9971395420069513</v>
       </c>
       <c r="F15">
-        <v>1.044568285602512</v>
+        <v>1.002049599458584</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03190690194784</v>
+        <v>1.037803882975697</v>
       </c>
       <c r="J15">
-        <v>1.033105171185774</v>
+        <v>1.009198726037256</v>
       </c>
       <c r="K15">
-        <v>1.033601601638418</v>
+        <v>1.017346574503887</v>
       </c>
       <c r="L15">
-        <v>1.039404494819095</v>
+        <v>1.012043375876487</v>
       </c>
       <c r="M15">
-        <v>1.048088282984885</v>
+        <v>1.016861253286573</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.027092170783403</v>
+        <v>0.9821487561156148</v>
       </c>
       <c r="D16">
-        <v>1.030441767753578</v>
+        <v>1.004635946608588</v>
       </c>
       <c r="E16">
-        <v>1.036376476174609</v>
+        <v>0.9996747498886758</v>
       </c>
       <c r="F16">
-        <v>1.045154011473182</v>
+        <v>1.004874803814618</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031998143122166</v>
+        <v>1.038493353155484</v>
       </c>
       <c r="J16">
-        <v>1.033470707254016</v>
+        <v>1.011009863313522</v>
       </c>
       <c r="K16">
-        <v>1.033899207610997</v>
+        <v>1.018885565813571</v>
       </c>
       <c r="L16">
-        <v>1.039812647541466</v>
+        <v>1.014013184289971</v>
       </c>
       <c r="M16">
-        <v>1.048559214323436</v>
+        <v>1.019120175721218</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.027460482525935</v>
+        <v>0.9840461584837585</v>
       </c>
       <c r="D17">
-        <v>1.030701342257482</v>
+        <v>1.005933185187497</v>
       </c>
       <c r="E17">
-        <v>1.036705371046843</v>
+        <v>1.001247756662712</v>
       </c>
       <c r="F17">
-        <v>1.045521750443442</v>
+        <v>1.006627494262187</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032054981771676</v>
+        <v>1.038917454936596</v>
       </c>
       <c r="J17">
-        <v>1.03369999064754</v>
+        <v>1.012131532111407</v>
       </c>
       <c r="K17">
-        <v>1.034085753100489</v>
+        <v>1.019837977823384</v>
       </c>
       <c r="L17">
-        <v>1.040068754974445</v>
+        <v>1.015233943498414</v>
       </c>
       <c r="M17">
-        <v>1.048854739698181</v>
+        <v>1.020520308876522</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.027675380881922</v>
+        <v>0.9851444896139162</v>
       </c>
       <c r="D18">
-        <v>1.030852780325688</v>
+        <v>1.006684596254685</v>
       </c>
       <c r="E18">
-        <v>1.036897316547984</v>
+        <v>1.002159201346722</v>
       </c>
       <c r="F18">
-        <v>1.045736364324057</v>
+        <v>1.007642966611753</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032087992438651</v>
+        <v>1.039161853301985</v>
       </c>
       <c r="J18">
-        <v>1.033833724662619</v>
+        <v>1.012780710939987</v>
       </c>
       <c r="K18">
-        <v>1.034194512984862</v>
+        <v>1.020388933888422</v>
       </c>
       <c r="L18">
-        <v>1.040218168022833</v>
+        <v>1.015940767957834</v>
       </c>
       <c r="M18">
-        <v>1.049027158424444</v>
+        <v>1.021331063859003</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.027748667230739</v>
+        <v>0.9855175899812043</v>
       </c>
       <c r="D19">
-        <v>1.03090442228628</v>
+        <v>1.00693992942812</v>
       </c>
       <c r="E19">
-        <v>1.036962783056365</v>
+        <v>1.002468966461345</v>
       </c>
       <c r="F19">
-        <v>1.045809562075543</v>
+        <v>1.007988072451752</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032099224060653</v>
+        <v>1.03924468703457</v>
       </c>
       <c r="J19">
-        <v>1.033879323947618</v>
+        <v>1.013001215101559</v>
       </c>
       <c r="K19">
-        <v>1.03423158896129</v>
+        <v>1.020576029738203</v>
       </c>
       <c r="L19">
-        <v>1.040269119051178</v>
+        <v>1.016180902576097</v>
       </c>
       <c r="M19">
-        <v>1.049085956141209</v>
+        <v>1.021606519846422</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.027420959084891</v>
+        <v>0.9838434582229176</v>
       </c>
       <c r="D20">
-        <v>1.030673488981685</v>
+        <v>1.005794549109068</v>
       </c>
       <c r="E20">
-        <v>1.036670072694338</v>
+        <v>1.001079618581182</v>
       </c>
       <c r="F20">
-        <v>1.045482283320484</v>
+        <v>1.0064401588729</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032048898243118</v>
+        <v>1.03887226141764</v>
       </c>
       <c r="J20">
-        <v>1.033675391023605</v>
+        <v>1.012011714925097</v>
       </c>
       <c r="K20">
-        <v>1.0340657435898</v>
+        <v>1.019736267897328</v>
       </c>
       <c r="L20">
-        <v>1.040041273968201</v>
+        <v>1.015103510725408</v>
       </c>
       <c r="M20">
-        <v>1.048823028085343</v>
+        <v>1.020370703292447</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.026356353761758</v>
+        <v>0.9783004460656541</v>
       </c>
       <c r="D21">
-        <v>1.029923089609702</v>
+        <v>1.00200828636885</v>
       </c>
       <c r="E21">
-        <v>1.035719700113534</v>
+        <v>0.9964903400627072</v>
       </c>
       <c r="F21">
-        <v>1.044419658122051</v>
+        <v>1.001326056300435</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03188361221704</v>
+        <v>1.037626184519556</v>
       </c>
       <c r="J21">
-        <v>1.033012351107517</v>
+        <v>1.008734291805316</v>
       </c>
       <c r="K21">
-        <v>1.03352599136664</v>
+        <v>1.016951710777425</v>
       </c>
       <c r="L21">
-        <v>1.039300881715419</v>
+        <v>1.011538510495877</v>
       </c>
       <c r="M21">
-        <v>1.047968740884796</v>
+        <v>1.016282349613994</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.025687616719573</v>
+        <v>0.9747346851300491</v>
       </c>
       <c r="D22">
-        <v>1.029451588178378</v>
+        <v>0.9995777713956999</v>
       </c>
       <c r="E22">
-        <v>1.035123134044033</v>
+        <v>0.9935468024013155</v>
       </c>
       <c r="F22">
-        <v>1.043752616134901</v>
+        <v>0.9980450312940723</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031778411566573</v>
+        <v>1.036814875528523</v>
       </c>
       <c r="J22">
-        <v>1.032595450555473</v>
+        <v>1.006625293407873</v>
       </c>
       <c r="K22">
-        <v>1.033186194001796</v>
+        <v>1.015157597360171</v>
       </c>
       <c r="L22">
-        <v>1.038835644975304</v>
+        <v>1.009247191595063</v>
       </c>
       <c r="M22">
-        <v>1.047432019637012</v>
+        <v>1.01365531623344</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.026042067532747</v>
+        <v>0.9766328621800096</v>
       </c>
       <c r="D23">
-        <v>1.029701510652981</v>
+        <v>1.000871102159722</v>
       </c>
       <c r="E23">
-        <v>1.035439292502214</v>
+        <v>0.9951129062311016</v>
       </c>
       <c r="F23">
-        <v>1.044106125555524</v>
+        <v>0.9997907802824142</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031834301453783</v>
+        <v>1.037247659567495</v>
       </c>
       <c r="J23">
-        <v>1.032816459082273</v>
+        <v>1.007748030937541</v>
       </c>
       <c r="K23">
-        <v>1.033366367775896</v>
+        <v>1.016112910188858</v>
       </c>
       <c r="L23">
-        <v>1.039082249117333</v>
+        <v>1.010466730683093</v>
       </c>
       <c r="M23">
-        <v>1.04771650710371</v>
+        <v>1.015053475371446</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.027438817815514</v>
+        <v>0.9839350756253906</v>
       </c>
       <c r="D24">
-        <v>1.030686074577367</v>
+        <v>1.005857208970262</v>
       </c>
       <c r="E24">
-        <v>1.036686022170941</v>
+        <v>1.001155611645324</v>
       </c>
       <c r="F24">
-        <v>1.045500116450171</v>
+        <v>1.006524828775579</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03205164756772</v>
+        <v>1.038892691599927</v>
       </c>
       <c r="J24">
-        <v>1.033686506544485</v>
+        <v>1.012065870799232</v>
       </c>
       <c r="K24">
-        <v>1.034074785177714</v>
+        <v>1.019782240334097</v>
       </c>
       <c r="L24">
-        <v>1.040053691359693</v>
+        <v>1.015162463794963</v>
       </c>
       <c r="M24">
-        <v>1.048837357063038</v>
+        <v>1.020438321874498</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.02906234632689</v>
+        <v>0.9920818755927561</v>
       </c>
       <c r="D25">
-        <v>1.031829881640143</v>
+        <v>1.011438674235068</v>
       </c>
       <c r="E25">
-        <v>1.038136962517277</v>
+        <v>1.007931473337793</v>
       </c>
       <c r="F25">
-        <v>1.047122387426001</v>
+        <v>1.014072619200908</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032298279348333</v>
+        <v>1.04068549448613</v>
       </c>
       <c r="J25">
-        <v>1.034696022549613</v>
+        <v>1.016878686489645</v>
       </c>
       <c r="K25">
-        <v>1.034894940373036</v>
+        <v>1.023861977224586</v>
       </c>
       <c r="L25">
-        <v>1.041182165458554</v>
+        <v>1.020407898599707</v>
       </c>
       <c r="M25">
-        <v>1.050139753700381</v>
+        <v>1.026456334257005</v>
       </c>
     </row>
   </sheetData>
